--- a/biology/Botanique/Potentilla_hirta/Potentilla_hirta.xlsx
+++ b/biology/Botanique/Potentilla_hirta/Potentilla_hirta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La potentille velue ou potentille hérissée (Potentilla hirta) est une espèce de plantes à fleurs de la famille des rosacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un plante herbacée vivace.
 Toute la plante est très velue : elle est hérissée de longs poils blancs. La tige est souvent rougeâtre. Les feuilles composées présentent des folioles étroites, en coin à la base et dentées (3 à 7 dents) seulement dans la moitié supérieure (ce qui la distingue de la potentille droite (Potentilla recta), espèce voisine, dont les folioles sont dentées jusqu'à la base). Les grandes fleurs jaunes (20 à 30 mm de diamètre) sont groupées en corymbe au sommet de la tige.
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En France : pelouses sèches, rocailles ou bois clairs de la région méditerranéenne et du Dauphiné.
 </t>
@@ -574,7 +590,9 @@
           <t>Consommateurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les chenilles des papillons diurnes Hespérie de l'aigremoine (Pyrgus malvoides) et Hespérie de l'alchémille 
 (Pyrgus serratulae) peuvent se nourrir de la potentille velue. 
